--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lif-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lif-Lifr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Lif</t>
+  </si>
+  <si>
+    <t>Lifr</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lif</t>
-  </si>
-  <si>
-    <t>Lifr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +546,10 @@
         <v>8.603936000000001</v>
       </c>
       <c r="I2">
-        <v>0.5389395658779439</v>
+        <v>0.8192888930871463</v>
       </c>
       <c r="J2">
-        <v>0.5730299235867837</v>
+        <v>0.8192888930871461</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N2">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O2">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P2">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q2">
-        <v>82.99629601569779</v>
+        <v>68.26964046327822</v>
       </c>
       <c r="R2">
-        <v>746.9666641412801</v>
+        <v>614.4267641695039</v>
       </c>
       <c r="S2">
-        <v>0.1287617386466028</v>
+        <v>0.1667563892980999</v>
       </c>
       <c r="T2">
-        <v>0.1432038125733405</v>
+        <v>0.1712931356684952</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>8.603936000000001</v>
       </c>
       <c r="I3">
-        <v>0.5389395658779439</v>
+        <v>0.8192888930871463</v>
       </c>
       <c r="J3">
-        <v>0.5730299235867837</v>
+        <v>0.8192888930871461</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>107.117709</v>
       </c>
       <c r="O3">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P3">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q3">
         <v>102.4037680780693</v>
@@ -638,10 +638,10 @@
         <v>921.633912702624</v>
       </c>
       <c r="S3">
-        <v>0.1588707912844903</v>
+        <v>0.2501328921514416</v>
       </c>
       <c r="T3">
-        <v>0.17668993334211</v>
+        <v>0.2569379656803242</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -670,10 +670,10 @@
         <v>8.603936000000001</v>
       </c>
       <c r="I4">
-        <v>0.5389395658779439</v>
+        <v>0.8192888930871463</v>
       </c>
       <c r="J4">
-        <v>0.5730299235867837</v>
+        <v>0.8192888930871461</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N4">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O4">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P4">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q4">
-        <v>55.30666846777601</v>
+        <v>96.92520131414759</v>
       </c>
       <c r="R4">
-        <v>497.760016209984</v>
+        <v>872.3268118273281</v>
       </c>
       <c r="S4">
-        <v>0.08580362175819456</v>
+        <v>0.2367508674933276</v>
       </c>
       <c r="T4">
-        <v>0.09542746080882064</v>
+        <v>0.2431918719028692</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,10 +732,10 @@
         <v>8.603936000000001</v>
       </c>
       <c r="I5">
-        <v>0.5389395658779439</v>
+        <v>0.8192888930871463</v>
       </c>
       <c r="J5">
-        <v>0.5730299235867837</v>
+        <v>0.8192888930871461</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N5">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O5">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P5">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q5">
-        <v>45.82831875406401</v>
+        <v>26.65066164622401</v>
       </c>
       <c r="R5">
-        <v>274.969912524384</v>
+        <v>159.903969877344</v>
       </c>
       <c r="S5">
-        <v>0.07109876326177138</v>
+        <v>0.0650972830437002</v>
       </c>
       <c r="T5">
-        <v>0.05271552494476792</v>
+        <v>0.04457887254171527</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>8.603936000000001</v>
       </c>
       <c r="I6">
-        <v>0.5389395658779439</v>
+        <v>0.8192888930871463</v>
       </c>
       <c r="J6">
-        <v>0.5730299235867837</v>
+        <v>0.8192888930871461</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N6">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O6">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P6">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q6">
-        <v>60.85065669306312</v>
+        <v>41.16551171614934</v>
       </c>
       <c r="R6">
-        <v>547.655910237568</v>
+        <v>370.4896054453441</v>
       </c>
       <c r="S6">
-        <v>0.09440465092688477</v>
+        <v>0.1005514611005769</v>
       </c>
       <c r="T6">
-        <v>0.1049931919177446</v>
+        <v>0.1032870472937423</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3116546666666666</v>
+        <v>0.4707103333333333</v>
       </c>
       <c r="H7">
-        <v>0.9349639999999999</v>
+        <v>1.412131</v>
       </c>
       <c r="I7">
-        <v>0.05856495123528415</v>
+        <v>0.1344667421845124</v>
       </c>
       <c r="J7">
-        <v>0.06226944847990426</v>
+        <v>0.1344667421845124</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N7">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O7">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P7">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q7">
-        <v>9.018959335357778</v>
+        <v>11.20483411976211</v>
       </c>
       <c r="R7">
-        <v>81.17063401822</v>
+        <v>100.843507077859</v>
       </c>
       <c r="S7">
-        <v>0.01399215315083496</v>
+        <v>0.02736908628515079</v>
       </c>
       <c r="T7">
-        <v>0.01556153014374127</v>
+        <v>0.02811368505817428</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3116546666666666</v>
+        <v>0.4707103333333333</v>
       </c>
       <c r="H8">
-        <v>0.9349639999999999</v>
+        <v>1.412131</v>
       </c>
       <c r="I8">
-        <v>0.05856495123528415</v>
+        <v>0.1344667421845124</v>
       </c>
       <c r="J8">
-        <v>0.06226944847990426</v>
+        <v>0.1344667421845124</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>107.117709</v>
       </c>
       <c r="O8">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P8">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q8">
-        <v>11.12791129749733</v>
+        <v>16.80713750309767</v>
       </c>
       <c r="R8">
-        <v>100.151201677476</v>
+        <v>151.264237527879</v>
       </c>
       <c r="S8">
-        <v>0.01726401387719668</v>
+        <v>0.04105335175978847</v>
       </c>
       <c r="T8">
-        <v>0.01920036676670683</v>
+        <v>0.04217024236513636</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3116546666666666</v>
+        <v>0.4707103333333333</v>
       </c>
       <c r="H9">
-        <v>0.9349639999999999</v>
+        <v>1.412131</v>
       </c>
       <c r="I9">
-        <v>0.05856495123528415</v>
+        <v>0.1344667421845124</v>
       </c>
       <c r="J9">
-        <v>0.06226944847990426</v>
+        <v>0.1344667421845124</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N9">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O9">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P9">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q9">
-        <v>6.010010299624</v>
+        <v>15.90796136290978</v>
       </c>
       <c r="R9">
-        <v>54.09009269661599</v>
+        <v>143.171652266188</v>
       </c>
       <c r="S9">
-        <v>0.00932402303010257</v>
+        <v>0.03885701140317875</v>
       </c>
       <c r="T9">
-        <v>0.01036981684518088</v>
+        <v>0.03991414874100302</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3116546666666666</v>
+        <v>0.4707103333333333</v>
       </c>
       <c r="H10">
-        <v>0.9349639999999999</v>
+        <v>1.412131</v>
       </c>
       <c r="I10">
-        <v>0.05856495123528415</v>
+        <v>0.1344667421845124</v>
       </c>
       <c r="J10">
-        <v>0.06226944847990426</v>
+        <v>0.1344667421845124</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N10">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O10">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P10">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q10">
-        <v>4.980026375785999</v>
+        <v>4.3740708300415</v>
       </c>
       <c r="R10">
-        <v>29.880158254716</v>
+        <v>26.244424980249</v>
       </c>
       <c r="S10">
-        <v>0.007726090023714588</v>
+        <v>0.01068416726969882</v>
       </c>
       <c r="T10">
-        <v>0.005728438480302501</v>
+        <v>0.007316559288819084</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3116546666666666</v>
+        <v>0.4707103333333333</v>
       </c>
       <c r="H11">
-        <v>0.9349639999999999</v>
+        <v>1.412131</v>
       </c>
       <c r="I11">
-        <v>0.05856495123528415</v>
+        <v>0.1344667421845124</v>
       </c>
       <c r="J11">
-        <v>0.06226944847990426</v>
+        <v>0.1344667421845124</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N11">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O11">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P11">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q11">
-        <v>6.61245892395911</v>
+        <v>6.756337474527667</v>
       </c>
       <c r="R11">
-        <v>59.51213031563199</v>
+        <v>60.807037270749</v>
       </c>
       <c r="S11">
-        <v>0.01025867115343534</v>
+        <v>0.01650312546669556</v>
       </c>
       <c r="T11">
-        <v>0.01140929624397278</v>
+        <v>0.01695210673137964</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.9497545000000001</v>
+        <v>0.1618816666666667</v>
       </c>
       <c r="H12">
-        <v>1.899509</v>
+        <v>0.485645</v>
       </c>
       <c r="I12">
-        <v>0.1784742278140924</v>
+        <v>0.04624436472834143</v>
       </c>
       <c r="J12">
-        <v>0.1265090183286356</v>
+        <v>0.04624436472834143</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.93895166666667</v>
+        <v>23.80409633333333</v>
       </c>
       <c r="N12">
-        <v>86.816855</v>
+        <v>71.41228899999999</v>
       </c>
       <c r="O12">
-        <v>0.2389168411431201</v>
+        <v>0.2035379592047788</v>
       </c>
       <c r="P12">
-        <v>0.2499063428956389</v>
+        <v>0.2090753787995941</v>
       </c>
       <c r="Q12">
-        <v>27.48489957069917</v>
+        <v>3.853446787933889</v>
       </c>
       <c r="R12">
-        <v>164.909397424195</v>
+        <v>34.68102109140499</v>
       </c>
       <c r="S12">
-        <v>0.04264049873480053</v>
+        <v>0.009412483621528068</v>
       </c>
       <c r="T12">
-        <v>0.03161540611382668</v>
+        <v>0.009668558072924573</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -1219,19 +1219,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.9497545000000001</v>
+        <v>0.1618816666666667</v>
       </c>
       <c r="H13">
-        <v>1.899509</v>
+        <v>0.485645</v>
       </c>
       <c r="I13">
-        <v>0.1784742278140924</v>
+        <v>0.04624436472834143</v>
       </c>
       <c r="J13">
-        <v>0.1265090183286356</v>
+        <v>0.04624436472834143</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>107.117709</v>
       </c>
       <c r="O13">
-        <v>0.294784056215443</v>
+        <v>0.3053048738509329</v>
       </c>
       <c r="P13">
-        <v>0.3083432925040795</v>
+        <v>0.3136109470643028</v>
       </c>
       <c r="Q13">
-        <v>33.9118420508135</v>
+        <v>5.780131087478334</v>
       </c>
       <c r="R13">
-        <v>203.471052304881</v>
+        <v>52.02117978730499</v>
       </c>
       <c r="S13">
-        <v>0.05261135680495719</v>
+        <v>0.01411862993970281</v>
       </c>
       <c r="T13">
-        <v>0.03900820724291045</v>
+        <v>0.0145027390188422</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1281,19 +1281,19 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.9497545000000001</v>
+        <v>0.1618816666666667</v>
       </c>
       <c r="H14">
-        <v>1.899509</v>
+        <v>0.485645</v>
       </c>
       <c r="I14">
-        <v>0.1784742278140924</v>
+        <v>0.04624436472834143</v>
       </c>
       <c r="J14">
-        <v>0.1265090183286356</v>
+        <v>0.04624436472834143</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.284198</v>
+        <v>33.79564933333334</v>
       </c>
       <c r="N14">
-        <v>57.852594</v>
+        <v>101.386948</v>
       </c>
       <c r="O14">
-        <v>0.1592082437265831</v>
+        <v>0.2889711669362822</v>
       </c>
       <c r="P14">
-        <v>0.1665313745074753</v>
+        <v>0.2968328680576918</v>
       </c>
       <c r="Q14">
-        <v>18.315253829391</v>
+        <v>5.470896040162223</v>
       </c>
       <c r="R14">
-        <v>109.891522976346</v>
+        <v>49.23806436146</v>
       </c>
       <c r="S14">
-        <v>0.02841456836073973</v>
+        <v>0.01336328803977587</v>
       </c>
       <c r="T14">
-        <v>0.02106772070985908</v>
+        <v>0.01372684741381955</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.9497545000000001</v>
+        <v>0.1618816666666667</v>
       </c>
       <c r="H15">
-        <v>1.899509</v>
+        <v>0.485645</v>
       </c>
       <c r="I15">
-        <v>0.1784742278140924</v>
+        <v>0.04624436472834143</v>
       </c>
       <c r="J15">
-        <v>0.1265090183286356</v>
+        <v>0.04624436472834143</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.9793095</v>
+        <v>9.2924895</v>
       </c>
       <c r="N15">
-        <v>31.958619</v>
+        <v>18.584979</v>
       </c>
       <c r="O15">
-        <v>0.1319234433010128</v>
+        <v>0.07945583492339121</v>
       </c>
       <c r="P15">
-        <v>0.09199436674232302</v>
+        <v>0.05441166469831967</v>
       </c>
       <c r="Q15">
-        <v>15.17642110451775</v>
+        <v>1.5042836877425</v>
       </c>
       <c r="R15">
-        <v>60.705684418071</v>
+        <v>9.025702126455</v>
       </c>
       <c r="S15">
-        <v>0.02354493467372445</v>
+        <v>0.003674384609992192</v>
       </c>
       <c r="T15">
-        <v>0.01163811702833577</v>
+        <v>0.002516232867785315</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.9497545000000001</v>
+        <v>0.1618816666666667</v>
       </c>
       <c r="H16">
-        <v>1.899509</v>
+        <v>0.485645</v>
       </c>
       <c r="I16">
-        <v>0.1784742278140924</v>
+        <v>0.04624436472834143</v>
       </c>
       <c r="J16">
-        <v>0.1265090183286356</v>
+        <v>0.04624436472834143</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.21726266666667</v>
+        <v>14.353493</v>
       </c>
       <c r="N16">
-        <v>63.651788</v>
+        <v>43.060479</v>
       </c>
       <c r="O16">
-        <v>0.1751674156138409</v>
+        <v>0.122730165084615</v>
       </c>
       <c r="P16">
-        <v>0.1832246233504832</v>
+        <v>0.1260691413800917</v>
       </c>
       <c r="Q16">
-        <v>20.15119069534867</v>
+        <v>2.323567369328333</v>
       </c>
       <c r="R16">
-        <v>120.907144172092</v>
+        <v>20.912106323955</v>
       </c>
       <c r="S16">
-        <v>0.03126286923987043</v>
+        <v>0.00567557851734249</v>
       </c>
       <c r="T16">
-        <v>0.02317956723370363</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>1.192134</v>
-      </c>
-      <c r="H17">
-        <v>3.576402</v>
-      </c>
-      <c r="I17">
-        <v>0.2240212550726795</v>
-      </c>
-      <c r="J17">
-        <v>0.2381916096046763</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>28.93895166666667</v>
-      </c>
-      <c r="N17">
-        <v>86.816855</v>
-      </c>
-      <c r="O17">
-        <v>0.2389168411431201</v>
-      </c>
-      <c r="P17">
-        <v>0.2499063428956389</v>
-      </c>
-      <c r="Q17">
-        <v>34.49910820619</v>
-      </c>
-      <c r="R17">
-        <v>310.49197385571</v>
-      </c>
-      <c r="S17">
-        <v>0.05352245061088176</v>
-      </c>
-      <c r="T17">
-        <v>0.0595255940647304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>1.192134</v>
-      </c>
-      <c r="H18">
-        <v>3.576402</v>
-      </c>
-      <c r="I18">
-        <v>0.2240212550726795</v>
-      </c>
-      <c r="J18">
-        <v>0.2381916096046763</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>35.705903</v>
-      </c>
-      <c r="N18">
-        <v>107.117709</v>
-      </c>
-      <c r="O18">
-        <v>0.294784056215443</v>
-      </c>
-      <c r="P18">
-        <v>0.3083432925040795</v>
-      </c>
-      <c r="Q18">
-        <v>42.566220967002</v>
-      </c>
-      <c r="R18">
-        <v>383.095988703018</v>
-      </c>
-      <c r="S18">
-        <v>0.06603789424879886</v>
-      </c>
-      <c r="T18">
-        <v>0.07344478515235223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>1.192134</v>
-      </c>
-      <c r="H19">
-        <v>3.576402</v>
-      </c>
-      <c r="I19">
-        <v>0.2240212550726795</v>
-      </c>
-      <c r="J19">
-        <v>0.2381916096046763</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>19.284198</v>
-      </c>
-      <c r="N19">
-        <v>57.852594</v>
-      </c>
-      <c r="O19">
-        <v>0.1592082437265831</v>
-      </c>
-      <c r="P19">
-        <v>0.1665313745074753</v>
-      </c>
-      <c r="Q19">
-        <v>22.989348098532</v>
-      </c>
-      <c r="R19">
-        <v>206.904132886788</v>
-      </c>
-      <c r="S19">
-        <v>0.03566603057754619</v>
-      </c>
-      <c r="T19">
-        <v>0.03966637614361471</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>1.192134</v>
-      </c>
-      <c r="H20">
-        <v>3.576402</v>
-      </c>
-      <c r="I20">
-        <v>0.2240212550726795</v>
-      </c>
-      <c r="J20">
-        <v>0.2381916096046763</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>15.9793095</v>
-      </c>
-      <c r="N20">
-        <v>31.958619</v>
-      </c>
-      <c r="O20">
-        <v>0.1319234433010128</v>
-      </c>
-      <c r="P20">
-        <v>0.09199436674232302</v>
-      </c>
-      <c r="Q20">
-        <v>19.049478151473</v>
-      </c>
-      <c r="R20">
-        <v>114.296868908838</v>
-      </c>
-      <c r="S20">
-        <v>0.02955365534180236</v>
-      </c>
-      <c r="T20">
-        <v>0.02191228628891682</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>1.192134</v>
-      </c>
-      <c r="H21">
-        <v>3.576402</v>
-      </c>
-      <c r="I21">
-        <v>0.2240212550726795</v>
-      </c>
-      <c r="J21">
-        <v>0.2381916096046763</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>21.21726266666667</v>
-      </c>
-      <c r="N21">
-        <v>63.651788</v>
-      </c>
-      <c r="O21">
-        <v>0.1751674156138409</v>
-      </c>
-      <c r="P21">
-        <v>0.1832246233504832</v>
-      </c>
-      <c r="Q21">
-        <v>25.293820211864</v>
-      </c>
-      <c r="R21">
-        <v>227.644381906776</v>
-      </c>
-      <c r="S21">
-        <v>0.0392412242936503</v>
-      </c>
-      <c r="T21">
-        <v>0.04364256795506215</v>
+        <v>0.005829987354969804</v>
       </c>
     </row>
   </sheetData>
